--- a/applayer/operation/src/main/resources/officetemplate/excel/inquiry.xlsx
+++ b/applayer/operation/src/main/resources/officetemplate/excel/inquiry.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\application\gitwork\finance\applayer\operation\src\main\resources\officetemplate\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -113,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,41 +242,41 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,11 +284,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -325,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +370,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +422,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,183 +615,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:B5"/>
@@ -758,6 +799,14 @@
     <mergeCell ref="G2:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,12 +815,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -779,12 +828,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
